--- a/data/pca/factorExposure/factorExposure_2011-03-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +738,54 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.01113397513109695</v>
+        <v>-0.01368434183270438</v>
       </c>
       <c r="C2">
-        <v>0.002065379437360023</v>
+        <v>0.00697436172242958</v>
       </c>
       <c r="D2">
-        <v>0.01283164106625228</v>
+        <v>0.008673010843158246</v>
       </c>
       <c r="E2">
-        <v>-0.02002929080489758</v>
+        <v>-0.004497820168931755</v>
       </c>
       <c r="F2">
-        <v>-0.001651298973243516</v>
+        <v>0.007715991530277403</v>
       </c>
       <c r="G2">
-        <v>-0.01565387342207288</v>
+        <v>-0.02157418218716728</v>
       </c>
       <c r="H2">
-        <v>-0.04298565331008351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.002369941688432373</v>
+      </c>
+      <c r="I2">
+        <v>-0.009315308287035879</v>
+      </c>
+      <c r="J2">
+        <v>-0.001610868498945633</v>
+      </c>
+      <c r="K2">
+        <v>-0.07348319734710644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +808,54 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1065928073915239</v>
+        <v>-0.1211637790487988</v>
       </c>
       <c r="C4">
-        <v>-0.02223553911400295</v>
+        <v>0.05611547735500459</v>
       </c>
       <c r="D4">
-        <v>0.07380475874586118</v>
+        <v>0.01025640746045512</v>
       </c>
       <c r="E4">
-        <v>-0.03302661461076686</v>
+        <v>0.01151751798371059</v>
       </c>
       <c r="F4">
-        <v>-0.05442089279839212</v>
+        <v>0.0186210418699246</v>
       </c>
       <c r="G4">
-        <v>-0.01536719422721838</v>
+        <v>-0.01297179411792006</v>
       </c>
       <c r="H4">
-        <v>0.02607358792513097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.0727312300810757</v>
+      </c>
+      <c r="I4">
+        <v>-0.1320516170411511</v>
+      </c>
+      <c r="J4">
+        <v>-0.04583523847174403</v>
+      </c>
+      <c r="K4">
+        <v>0.04646399842065198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +878,404 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1302985812789253</v>
+        <v>-0.124884157566106</v>
       </c>
       <c r="C6">
-        <v>-0.02356420334203549</v>
+        <v>0.0006399043385120481</v>
       </c>
       <c r="D6">
-        <v>0.01180891651543642</v>
+        <v>-0.01324734791099079</v>
       </c>
       <c r="E6">
-        <v>-0.02191039777897749</v>
+        <v>-0.02793944004931415</v>
       </c>
       <c r="F6">
-        <v>0.1889251831644058</v>
+        <v>0.01271781111834426</v>
       </c>
       <c r="G6">
-        <v>0.1016468669378644</v>
+        <v>0.03722346920241982</v>
       </c>
       <c r="H6">
-        <v>0.2900408604374656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.04356275559709163</v>
+      </c>
+      <c r="I6">
+        <v>-0.0661234056955091</v>
+      </c>
+      <c r="J6">
+        <v>0.1840849838021043</v>
+      </c>
+      <c r="K6">
+        <v>0.3003189201638852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09011394821377892</v>
+        <v>-0.07939829074738267</v>
       </c>
       <c r="C7">
-        <v>-0.03622948257942577</v>
+        <v>0.05050435366112528</v>
       </c>
       <c r="D7">
-        <v>0.03450611941223353</v>
+        <v>-0.02152199777917466</v>
       </c>
       <c r="E7">
-        <v>-0.05393861509265711</v>
+        <v>-0.04800672429866996</v>
       </c>
       <c r="F7">
-        <v>0.000387627532453026</v>
+        <v>-0.003921084472663942</v>
       </c>
       <c r="G7">
-        <v>0.0009392652200718758</v>
+        <v>-0.04167181049950377</v>
       </c>
       <c r="H7">
-        <v>0.004063835646693009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02062520847369945</v>
+      </c>
+      <c r="I7">
+        <v>-0.02578947551502409</v>
+      </c>
+      <c r="J7">
+        <v>-0.0374764488439679</v>
+      </c>
+      <c r="K7">
+        <v>0.0107188448936525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04132500344911355</v>
+        <v>-0.05278301449238287</v>
       </c>
       <c r="C8">
-        <v>0.03309727127687016</v>
+        <v>0.01338151856460841</v>
       </c>
       <c r="D8">
-        <v>0.1174548508315841</v>
+        <v>0.00334048976680786</v>
       </c>
       <c r="E8">
-        <v>-0.08360719967786849</v>
+        <v>-0.01261188501423953</v>
       </c>
       <c r="F8">
-        <v>-0.0485207868818375</v>
+        <v>-0.003448332829747038</v>
       </c>
       <c r="G8">
-        <v>-0.1309032597092175</v>
+        <v>-0.004562348614840106</v>
       </c>
       <c r="H8">
-        <v>0.05779167109524713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.09537791724480396</v>
+      </c>
+      <c r="I8">
+        <v>-0.101821073428306</v>
+      </c>
+      <c r="J8">
+        <v>-0.004505595668547894</v>
+      </c>
+      <c r="K8">
+        <v>0.05047785659708143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0932711544070918</v>
+        <v>-0.09259226986497961</v>
       </c>
       <c r="C9">
-        <v>-0.03917326606425511</v>
+        <v>0.05467172204160441</v>
       </c>
       <c r="D9">
-        <v>0.06210904868553847</v>
+        <v>0.01482590064607435</v>
       </c>
       <c r="E9">
-        <v>-0.03879117135418615</v>
+        <v>-0.002367726290022003</v>
       </c>
       <c r="F9">
-        <v>-0.03662763611709373</v>
+        <v>0.003144759120901851</v>
       </c>
       <c r="G9">
-        <v>-0.06260104150230796</v>
+        <v>-0.02392848230514711</v>
       </c>
       <c r="H9">
-        <v>0.04179034799304834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.07820177775777822</v>
+      </c>
+      <c r="I9">
+        <v>-0.1097518641872956</v>
+      </c>
+      <c r="J9">
+        <v>-0.02481413412629807</v>
+      </c>
+      <c r="K9">
+        <v>0.01719351112759279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03820956544418077</v>
+        <v>-0.08135157515086357</v>
       </c>
       <c r="C10">
-        <v>0.1716045241703798</v>
+        <v>-0.1836504379644894</v>
       </c>
       <c r="D10">
-        <v>0.04877475519470449</v>
+        <v>0.001599982043442088</v>
       </c>
       <c r="E10">
-        <v>-0.1001065523710386</v>
+        <v>0.009504075755647689</v>
       </c>
       <c r="F10">
-        <v>-0.001346701760685162</v>
+        <v>0.01520657423103998</v>
       </c>
       <c r="G10">
-        <v>0.0188050368381073</v>
+        <v>-0.0641756798886975</v>
       </c>
       <c r="H10">
-        <v>0.03580039808169969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.01004577167864098</v>
+      </c>
+      <c r="I10">
+        <v>0.002558383812531061</v>
+      </c>
+      <c r="J10">
+        <v>-0.01820335667790723</v>
+      </c>
+      <c r="K10">
+        <v>0.04325869678902495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07748991484839392</v>
+        <v>-0.08185064511491215</v>
       </c>
       <c r="C11">
-        <v>-0.06095566192735277</v>
+        <v>0.05375364594961155</v>
       </c>
       <c r="D11">
-        <v>-0.004701106361096996</v>
+        <v>-0.01449145314564943</v>
       </c>
       <c r="E11">
-        <v>-0.03247025376999749</v>
+        <v>-0.02576996869167496</v>
       </c>
       <c r="F11">
-        <v>-0.01790499178090387</v>
+        <v>-0.04082805736289204</v>
       </c>
       <c r="G11">
-        <v>-0.1580427683270255</v>
+        <v>0.002409994693200211</v>
       </c>
       <c r="H11">
-        <v>-0.06037077007454245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.08453278639244714</v>
+      </c>
+      <c r="I11">
+        <v>-0.08656622478772567</v>
+      </c>
+      <c r="J11">
+        <v>-0.007840943101812515</v>
+      </c>
+      <c r="K11">
+        <v>-0.07436601305611301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07367193642596236</v>
+        <v>-0.08348216573604469</v>
       </c>
       <c r="C12">
-        <v>-0.04162299705506972</v>
+        <v>0.06232850402988601</v>
       </c>
       <c r="D12">
-        <v>0.03311437623599768</v>
+        <v>-0.006108696965738694</v>
       </c>
       <c r="E12">
-        <v>-0.01461088323845614</v>
+        <v>-0.02551471092338296</v>
       </c>
       <c r="F12">
-        <v>0.001731311512167274</v>
+        <v>-0.06173747216792336</v>
       </c>
       <c r="G12">
-        <v>-0.1451538230751033</v>
+        <v>-0.01567974574053137</v>
       </c>
       <c r="H12">
-        <v>-0.03197892828879689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09550518951493595</v>
+      </c>
+      <c r="I12">
+        <v>-0.07498889146228135</v>
+      </c>
+      <c r="J12">
+        <v>0.01494944612285925</v>
+      </c>
+      <c r="K12">
+        <v>-0.06740602687570205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06337974459016346</v>
+        <v>-0.04479927744680419</v>
       </c>
       <c r="C13">
-        <v>-0.007564736765021715</v>
+        <v>0.02684723563081914</v>
       </c>
       <c r="D13">
-        <v>0.02665777359521489</v>
+        <v>0.01875973800640221</v>
       </c>
       <c r="E13">
-        <v>0.002993795095370063</v>
+        <v>-0.0158762442141746</v>
       </c>
       <c r="F13">
-        <v>-0.05417197755061496</v>
+        <v>0.02446226117056878</v>
       </c>
       <c r="G13">
-        <v>-0.05315089061228984</v>
+        <v>-0.01544709334488802</v>
       </c>
       <c r="H13">
-        <v>-0.003210035080986624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.05853861383798201</v>
+      </c>
+      <c r="I13">
+        <v>-0.05473339204872862</v>
+      </c>
+      <c r="J13">
+        <v>0.01161282864161885</v>
+      </c>
+      <c r="K13">
+        <v>0.05132257875425115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05297539408199477</v>
+        <v>-0.03690841110845677</v>
       </c>
       <c r="C14">
-        <v>-0.006548015882433328</v>
+        <v>0.006277264868667153</v>
       </c>
       <c r="D14">
-        <v>0.03851974990157322</v>
+        <v>-0.01030964914879689</v>
       </c>
       <c r="E14">
-        <v>-0.05235427099615644</v>
+        <v>0.007411335841958672</v>
       </c>
       <c r="F14">
-        <v>-0.04204876059211832</v>
+        <v>-0.009342308294997968</v>
       </c>
       <c r="G14">
-        <v>-0.03474910937705817</v>
+        <v>-0.005532076301074895</v>
       </c>
       <c r="H14">
-        <v>0.1444550202620203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.05495927785483629</v>
+      </c>
+      <c r="I14">
+        <v>-0.05084064617957367</v>
+      </c>
+      <c r="J14">
+        <v>-0.07859076587018467</v>
+      </c>
+      <c r="K14">
+        <v>0.08726656039398538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03522403030020516</v>
+        <v>-0.02492301537932815</v>
       </c>
       <c r="C15">
-        <v>0.009426734489201909</v>
+        <v>0.00718472357118274</v>
       </c>
       <c r="D15">
-        <v>0.01196785851322672</v>
+        <v>0.01749369116670375</v>
       </c>
       <c r="E15">
-        <v>-0.01975622011759297</v>
+        <v>-0.01126856151441316</v>
       </c>
       <c r="F15">
-        <v>-0.01156521903545002</v>
+        <v>0.04117210696313187</v>
       </c>
       <c r="G15">
-        <v>-0.01327671444631962</v>
+        <v>-0.01195409438462275</v>
       </c>
       <c r="H15">
-        <v>0.06006789426365577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.01624712831507571</v>
+      </c>
+      <c r="I15">
+        <v>-0.01652332785921465</v>
+      </c>
+      <c r="J15">
+        <v>-0.01299308025145432</v>
+      </c>
+      <c r="K15">
+        <v>0.04701030754994014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.08179811965436581</v>
+        <v>-0.08967374287789813</v>
       </c>
       <c r="C16">
-        <v>-0.06925875910307566</v>
+        <v>0.06227782435609977</v>
       </c>
       <c r="D16">
-        <v>0.03404764778940018</v>
+        <v>-0.01880595847576981</v>
       </c>
       <c r="E16">
-        <v>-0.01321902351921236</v>
+        <v>-0.03634500623486685</v>
       </c>
       <c r="F16">
-        <v>-0.05356968450812434</v>
+        <v>-0.04816929346390954</v>
       </c>
       <c r="G16">
-        <v>-0.113377949931015</v>
+        <v>-0.003138461359641243</v>
       </c>
       <c r="H16">
-        <v>-0.05837604627791455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.1122405499411284</v>
+      </c>
+      <c r="I16">
+        <v>-0.05738514820539529</v>
+      </c>
+      <c r="J16">
+        <v>-0.01499226960007455</v>
+      </c>
+      <c r="K16">
+        <v>-0.08844127326726207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1298,19 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1333,19 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1368,264 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05472426528843594</v>
+        <v>-0.05218201290208681</v>
       </c>
       <c r="C20">
-        <v>-0.02041977348972786</v>
+        <v>0.03034155253326848</v>
       </c>
       <c r="D20">
-        <v>0.02098894562546906</v>
+        <v>-0.02162137216857925</v>
       </c>
       <c r="E20">
-        <v>-0.01612439377032725</v>
+        <v>-0.006957401850101463</v>
       </c>
       <c r="F20">
-        <v>-0.01225602749900672</v>
+        <v>0.01290760845299443</v>
       </c>
       <c r="G20">
-        <v>-0.1035311828817368</v>
+        <v>-0.009725424206941551</v>
       </c>
       <c r="H20">
-        <v>-0.005596265964976463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.05022123129257734</v>
+      </c>
+      <c r="I20">
+        <v>-0.0431170638070229</v>
+      </c>
+      <c r="J20">
+        <v>-0.02820006895311435</v>
+      </c>
+      <c r="K20">
+        <v>0.02418180102963247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02644204136790667</v>
+        <v>-0.02983633498090009</v>
       </c>
       <c r="C21">
-        <v>-0.04125704176046414</v>
+        <v>0.01136153968757672</v>
       </c>
       <c r="D21">
-        <v>0.01676514687949302</v>
+        <v>-0.01200942657149563</v>
       </c>
       <c r="E21">
-        <v>-0.01520550848997193</v>
+        <v>0.036742097101249</v>
       </c>
       <c r="F21">
-        <v>0.07435289921577543</v>
+        <v>0.01880401748041289</v>
       </c>
       <c r="G21">
-        <v>0.09983919981219606</v>
+        <v>0.01587141546374284</v>
       </c>
       <c r="H21">
-        <v>0.09463319029103633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.03107592702898396</v>
+      </c>
+      <c r="I21">
+        <v>-0.06787587417346241</v>
+      </c>
+      <c r="J21">
+        <v>0.006811469150478325</v>
+      </c>
+      <c r="K21">
+        <v>0.05719529684299018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04254443420289285</v>
+        <v>-0.0348884040617795</v>
       </c>
       <c r="C22">
-        <v>-0.0205787521323123</v>
+        <v>-0.01015958799566395</v>
       </c>
       <c r="D22">
-        <v>0.5170789635217611</v>
+        <v>-0.02668593754587524</v>
       </c>
       <c r="E22">
-        <v>0.2250518926201008</v>
+        <v>-0.2756522387590316</v>
       </c>
       <c r="F22">
-        <v>-0.09409847921430442</v>
+        <v>0.586179972869376</v>
       </c>
       <c r="G22">
-        <v>0.3220605796111919</v>
+        <v>-0.06981353672028753</v>
       </c>
       <c r="H22">
-        <v>-0.1018338356332775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1011736876407755</v>
+      </c>
+      <c r="I22">
+        <v>0.1459890523103752</v>
+      </c>
+      <c r="J22">
+        <v>0.03897460074205227</v>
+      </c>
+      <c r="K22">
+        <v>-0.07386080833673353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04267594873148285</v>
+        <v>-0.03508200965745341</v>
       </c>
       <c r="C23">
-        <v>-0.02097889376402508</v>
+        <v>-0.009817490331182429</v>
       </c>
       <c r="D23">
-        <v>0.5165814535614013</v>
+        <v>-0.02686054558199229</v>
       </c>
       <c r="E23">
-        <v>0.2226325449266679</v>
+        <v>-0.2778650765574092</v>
       </c>
       <c r="F23">
-        <v>-0.09535656826629862</v>
+        <v>0.5875828953654433</v>
       </c>
       <c r="G23">
-        <v>0.3231685936568319</v>
+        <v>-0.06966865272212411</v>
       </c>
       <c r="H23">
-        <v>-0.1010631305399177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1029905368306939</v>
+      </c>
+      <c r="I23">
+        <v>0.142726738516781</v>
+      </c>
+      <c r="J23">
+        <v>0.03767544849317696</v>
+      </c>
+      <c r="K23">
+        <v>-0.07261635546738446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08535045598959194</v>
+        <v>-0.08975021424075144</v>
       </c>
       <c r="C24">
-        <v>-0.04982616450186114</v>
+        <v>0.05203314352685069</v>
       </c>
       <c r="D24">
-        <v>0.04017359004233764</v>
+        <v>-0.0324343018019813</v>
       </c>
       <c r="E24">
-        <v>-0.03378595513708946</v>
+        <v>-0.03165266818306891</v>
       </c>
       <c r="F24">
-        <v>-0.01593541299345039</v>
+        <v>-0.04343010228270849</v>
       </c>
       <c r="G24">
-        <v>-0.1190261955972651</v>
+        <v>-0.01169799919394584</v>
       </c>
       <c r="H24">
-        <v>-0.02888896678542633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.0991517977151295</v>
+      </c>
+      <c r="I24">
+        <v>-0.06073575814244597</v>
+      </c>
+      <c r="J24">
+        <v>0.001022996506040441</v>
+      </c>
+      <c r="K24">
+        <v>-0.08881707971900837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07787705278165558</v>
+        <v>-0.09072685418120391</v>
       </c>
       <c r="C25">
-        <v>-0.02240654411744888</v>
+        <v>0.03662200199365621</v>
       </c>
       <c r="D25">
-        <v>0.03304402413455775</v>
+        <v>-0.009484045469154691</v>
       </c>
       <c r="E25">
-        <v>-0.02030530410730532</v>
+        <v>-0.01701020031120487</v>
       </c>
       <c r="F25">
-        <v>0.0003932713195464999</v>
+        <v>-0.0637396238418389</v>
       </c>
       <c r="G25">
-        <v>-0.1167342539069824</v>
+        <v>-0.01425312875924851</v>
       </c>
       <c r="H25">
-        <v>-0.02463394106967408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.098226286445556</v>
+      </c>
+      <c r="I25">
+        <v>-0.05342174168249537</v>
+      </c>
+      <c r="J25">
+        <v>-0.02006971269275234</v>
+      </c>
+      <c r="K25">
+        <v>-0.05725496869515333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05136150385997634</v>
+        <v>-0.03947352789996605</v>
       </c>
       <c r="C26">
-        <v>-0.02388183657300331</v>
+        <v>-0.01334499846510129</v>
       </c>
       <c r="D26">
-        <v>0.02127235490453402</v>
+        <v>-0.0278068240873598</v>
       </c>
       <c r="E26">
-        <v>-0.04860074753819016</v>
+        <v>-0.007964916545630158</v>
       </c>
       <c r="F26">
-        <v>-0.0426116555897667</v>
+        <v>0.005886219902002505</v>
       </c>
       <c r="G26">
-        <v>-0.05485418306599824</v>
+        <v>0.01730636262249964</v>
       </c>
       <c r="H26">
-        <v>0.07066650175004628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05578763692332291</v>
+      </c>
+      <c r="I26">
+        <v>-0.02985492753834771</v>
+      </c>
+      <c r="J26">
+        <v>-0.04827517524950096</v>
+      </c>
+      <c r="K26">
+        <v>0.05948425615517179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1648,334 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06151861989546315</v>
+        <v>-0.09004075037049138</v>
       </c>
       <c r="C28">
-        <v>0.3050026018605842</v>
+        <v>-0.3132041014185059</v>
       </c>
       <c r="D28">
-        <v>-0.009196040331637441</v>
+        <v>0.07321306791773799</v>
       </c>
       <c r="E28">
-        <v>-0.02676459657860799</v>
+        <v>0.01756797354509039</v>
       </c>
       <c r="F28">
-        <v>0.05067342169312949</v>
+        <v>-0.008794027201939964</v>
       </c>
       <c r="G28">
-        <v>0.01904294068176042</v>
+        <v>-0.005469325498956327</v>
       </c>
       <c r="H28">
-        <v>-0.06379220199185394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.02648441426952702</v>
+      </c>
+      <c r="I28">
+        <v>-0.01717682242222323</v>
+      </c>
+      <c r="J28">
+        <v>0.02454724251675017</v>
+      </c>
+      <c r="K28">
+        <v>0.001933835908972961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05936333535292351</v>
+        <v>-0.03830683644700837</v>
       </c>
       <c r="C29">
-        <v>-0.002938493317328976</v>
+        <v>0.007041015680693639</v>
       </c>
       <c r="D29">
-        <v>0.04901674374651607</v>
+        <v>0.002418707928392024</v>
       </c>
       <c r="E29">
-        <v>-0.01811835066550089</v>
+        <v>0.0006417505334342372</v>
       </c>
       <c r="F29">
-        <v>-0.04229353158756561</v>
+        <v>-0.0116922462635809</v>
       </c>
       <c r="G29">
-        <v>-0.03496416884526924</v>
+        <v>-0.02666472047436389</v>
       </c>
       <c r="H29">
-        <v>0.08847232154116182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.09255484164445421</v>
+      </c>
+      <c r="I29">
+        <v>-0.03093412579290547</v>
+      </c>
+      <c r="J29">
+        <v>-0.06528988690226638</v>
+      </c>
+      <c r="K29">
+        <v>0.07874880207047597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.116167728511832</v>
+        <v>-0.1114883452554245</v>
       </c>
       <c r="C30">
-        <v>0.0252639884890493</v>
+        <v>0.07174744707331047</v>
       </c>
       <c r="D30">
-        <v>0.2375726970528863</v>
+        <v>0.01795297934693826</v>
       </c>
       <c r="E30">
-        <v>-0.01858455484132745</v>
+        <v>-0.03940129487410059</v>
       </c>
       <c r="F30">
-        <v>0.07376998621193435</v>
+        <v>-0.01960951219917205</v>
       </c>
       <c r="G30">
-        <v>-0.1645900953712094</v>
+        <v>0.03272534754699047</v>
       </c>
       <c r="H30">
-        <v>-0.03270534317165882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1993562748098471</v>
+      </c>
+      <c r="I30">
+        <v>-0.1048659602361835</v>
+      </c>
+      <c r="J30">
+        <v>0.2717964797208698</v>
+      </c>
+      <c r="K30">
+        <v>-0.04757176950684838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05666798854729557</v>
+        <v>-0.03838306932321821</v>
       </c>
       <c r="C31">
-        <v>-0.02091881528925181</v>
+        <v>0.02309572033605</v>
       </c>
       <c r="D31">
-        <v>0.002717913992764377</v>
+        <v>-0.01385815635721613</v>
       </c>
       <c r="E31">
-        <v>0.01876695456566661</v>
+        <v>-0.0209761604421697</v>
       </c>
       <c r="F31">
-        <v>-0.03663707748285978</v>
+        <v>-0.005590817984163729</v>
       </c>
       <c r="G31">
-        <v>-0.006479585483899911</v>
+        <v>-0.001204310627615206</v>
       </c>
       <c r="H31">
-        <v>0.02028295182938146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03090422905997531</v>
+      </c>
+      <c r="I31">
+        <v>-0.01623483844015861</v>
+      </c>
+      <c r="J31">
+        <v>-0.0637629335613594</v>
+      </c>
+      <c r="K31">
+        <v>0.03519891012215429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03616847781647615</v>
+        <v>-0.05455633723867631</v>
       </c>
       <c r="C32">
-        <v>0.01496911024980343</v>
+        <v>0.001663399951158788</v>
       </c>
       <c r="D32">
-        <v>0.08508925633974554</v>
+        <v>-0.0194405891740758</v>
       </c>
       <c r="E32">
-        <v>0.04793407264545069</v>
+        <v>0.0146625487426817</v>
       </c>
       <c r="F32">
-        <v>-0.1269626666931087</v>
+        <v>-0.04067105159684253</v>
       </c>
       <c r="G32">
-        <v>-0.02805154654631991</v>
+        <v>0.05070374921093818</v>
       </c>
       <c r="H32">
-        <v>0.00961051319629253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03211693236234216</v>
+      </c>
+      <c r="I32">
+        <v>-0.02589829451575369</v>
+      </c>
+      <c r="J32">
+        <v>0.01186926813086528</v>
+      </c>
+      <c r="K32">
+        <v>-0.0003766280895006775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1115715724946605</v>
+        <v>-0.1037058447749622</v>
       </c>
       <c r="C33">
-        <v>-0.01649353002271974</v>
+        <v>0.04886568279779319</v>
       </c>
       <c r="D33">
-        <v>0.01045206611434627</v>
+        <v>0.02654569610588359</v>
       </c>
       <c r="E33">
-        <v>0.027020681088837</v>
+        <v>-0.05627108258134566</v>
       </c>
       <c r="F33">
-        <v>-0.02246271408922021</v>
+        <v>-0.04175013550777503</v>
       </c>
       <c r="G33">
-        <v>-0.07662963447516592</v>
+        <v>-0.001739540600574786</v>
       </c>
       <c r="H33">
-        <v>0.0585212535578524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.04436117809063591</v>
+      </c>
+      <c r="I33">
+        <v>-0.04013385216430513</v>
+      </c>
+      <c r="J33">
+        <v>-0.02533390873696162</v>
+      </c>
+      <c r="K33">
+        <v>-0.0009046506297634003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06790743533844749</v>
+        <v>-0.0753071308588472</v>
       </c>
       <c r="C34">
-        <v>-0.04401847153460241</v>
+        <v>0.04511855560656436</v>
       </c>
       <c r="D34">
-        <v>0.01087740849374544</v>
+        <v>-0.01936037629967693</v>
       </c>
       <c r="E34">
-        <v>-0.001379733883605557</v>
+        <v>-0.03222384627298503</v>
       </c>
       <c r="F34">
-        <v>-0.03152182888961796</v>
+        <v>-0.0439960668076099</v>
       </c>
       <c r="G34">
-        <v>-0.09336824549153225</v>
+        <v>-0.001912689299600025</v>
       </c>
       <c r="H34">
-        <v>-0.02269788090194082</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1035106303952182</v>
+      </c>
+      <c r="I34">
+        <v>-0.06572741105416678</v>
+      </c>
+      <c r="J34">
+        <v>-0.02086067622881747</v>
+      </c>
+      <c r="K34">
+        <v>-0.0548127907011485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04391174287054295</v>
+        <v>-0.02176641055218527</v>
       </c>
       <c r="C35">
-        <v>-0.009492841615243953</v>
+        <v>0.01356423440302135</v>
       </c>
       <c r="D35">
-        <v>0.003278364020547072</v>
+        <v>0.007813308537919533</v>
       </c>
       <c r="E35">
-        <v>0.01169593026884666</v>
+        <v>0.0006949662422988142</v>
       </c>
       <c r="F35">
-        <v>0.04934890140829148</v>
+        <v>-0.001629886896251797</v>
       </c>
       <c r="G35">
-        <v>-0.04973973774364377</v>
+        <v>-0.007167508443284808</v>
       </c>
       <c r="H35">
-        <v>-0.01986861129714687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.05539320147711449</v>
+      </c>
+      <c r="I35">
+        <v>-0.01409243612500538</v>
+      </c>
+      <c r="J35">
+        <v>-0.03655180004022515</v>
+      </c>
+      <c r="K35">
+        <v>0.02546071332275074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03811011321123406</v>
+        <v>-0.03184982368774161</v>
       </c>
       <c r="C36">
-        <v>-0.002791946787236716</v>
+        <v>0.006613281426182433</v>
       </c>
       <c r="D36">
-        <v>0.04547838912933039</v>
+        <v>0.00105685858749325</v>
       </c>
       <c r="E36">
-        <v>-0.01314739442452617</v>
+        <v>-0.004637199393581981</v>
       </c>
       <c r="F36">
-        <v>-0.01096642792381838</v>
+        <v>0.008108251368888155</v>
       </c>
       <c r="G36">
-        <v>-0.05472220436740467</v>
+        <v>0.01057317214390857</v>
       </c>
       <c r="H36">
-        <v>0.04577366044444973</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.04802886107038587</v>
+      </c>
+      <c r="I36">
+        <v>-0.04314395276924009</v>
+      </c>
+      <c r="J36">
+        <v>-0.02222726387961119</v>
+      </c>
+      <c r="K36">
+        <v>0.01362295547461403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1998,159 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05675329602532044</v>
+        <v>-0.02077344099609278</v>
       </c>
       <c r="C38">
-        <v>-0.01518663632268808</v>
+        <v>0.01333562538385706</v>
       </c>
       <c r="D38">
-        <v>0.01100578466798223</v>
+        <v>-0.006712851921328509</v>
       </c>
       <c r="E38">
-        <v>-0.006993835057582491</v>
+        <v>-0.02233707323003333</v>
       </c>
       <c r="F38">
-        <v>-0.03030095885465295</v>
+        <v>0.01139111925096579</v>
       </c>
       <c r="G38">
-        <v>-0.05918655345580282</v>
+        <v>-0.01415584291568289</v>
       </c>
       <c r="H38">
-        <v>-0.009413146926200128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.0150870973799321</v>
+      </c>
+      <c r="I38">
+        <v>0.04091725285545004</v>
+      </c>
+      <c r="J38">
+        <v>-0.003871375400212686</v>
+      </c>
+      <c r="K38">
+        <v>0.06260696559556661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1081322034699045</v>
+        <v>-0.1271268894557298</v>
       </c>
       <c r="C39">
-        <v>-0.04117052829707132</v>
+        <v>0.08170889269945893</v>
       </c>
       <c r="D39">
-        <v>0.0736565732811201</v>
+        <v>0.006021437682554449</v>
       </c>
       <c r="E39">
-        <v>-0.008239832459934255</v>
+        <v>-0.01576752544993369</v>
       </c>
       <c r="F39">
-        <v>-0.01863327950085714</v>
+        <v>-0.1154884993474775</v>
       </c>
       <c r="G39">
-        <v>-0.1406300825661064</v>
+        <v>-0.01640643112762703</v>
       </c>
       <c r="H39">
-        <v>-0.1143148676010735</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1332926527688678</v>
+      </c>
+      <c r="I39">
+        <v>-0.03317475700554907</v>
+      </c>
+      <c r="J39">
+        <v>-0.005835365976075564</v>
+      </c>
+      <c r="K39">
+        <v>-0.149520063306225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05090075248377033</v>
+        <v>-0.01689092806744022</v>
       </c>
       <c r="C40">
-        <v>-0.02465328410862859</v>
+        <v>0.02386718389425049</v>
       </c>
       <c r="D40">
-        <v>0.09251550548283183</v>
+        <v>-0.03157937062878476</v>
       </c>
       <c r="E40">
-        <v>0.02954596552632861</v>
+        <v>-0.02678668335469247</v>
       </c>
       <c r="F40">
-        <v>0.03124718060441868</v>
+        <v>0.06009764143332821</v>
       </c>
       <c r="G40">
-        <v>-0.2768374278836153</v>
+        <v>-0.008021671778532923</v>
       </c>
       <c r="H40">
-        <v>-0.08260959417924414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.0725967094348977</v>
+      </c>
+      <c r="I40">
+        <v>-0.08478732706204435</v>
+      </c>
+      <c r="J40">
+        <v>0.03660624981110382</v>
+      </c>
+      <c r="K40">
+        <v>0.09141940543765392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04805865159284595</v>
+        <v>-0.02891753936089621</v>
       </c>
       <c r="C41">
-        <v>-0.0296551296650061</v>
+        <v>0.004502481539067784</v>
       </c>
       <c r="D41">
-        <v>-0.01438749881988816</v>
+        <v>-0.02870429729797238</v>
       </c>
       <c r="E41">
-        <v>-0.008810980288283551</v>
+        <v>-0.01057149700424392</v>
       </c>
       <c r="F41">
-        <v>-0.03471280865617118</v>
+        <v>-0.01892169679190451</v>
       </c>
       <c r="G41">
-        <v>-0.05732398821111789</v>
+        <v>-0.01005475475163069</v>
       </c>
       <c r="H41">
-        <v>-0.02780638247953417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.02202680114543774</v>
+      </c>
+      <c r="I41">
+        <v>-0.007450485425823865</v>
+      </c>
+      <c r="J41">
+        <v>-0.03717459490043824</v>
+      </c>
+      <c r="K41">
+        <v>0.04861352005435544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2173,89 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07487206412237821</v>
+        <v>-0.04508210717135881</v>
       </c>
       <c r="C43">
-        <v>-0.0275761968180264</v>
+        <v>0.006746116600948843</v>
       </c>
       <c r="D43">
-        <v>0.02676284495876204</v>
+        <v>-0.02198359217692907</v>
       </c>
       <c r="E43">
-        <v>-0.005991934910750064</v>
+        <v>-0.03667671330500669</v>
       </c>
       <c r="F43">
-        <v>-0.02922825576701751</v>
+        <v>-0.01036344333344115</v>
       </c>
       <c r="G43">
-        <v>-0.001524338036857903</v>
+        <v>-0.004974850311414181</v>
       </c>
       <c r="H43">
-        <v>-0.01985180099626668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.04195914563491976</v>
+      </c>
+      <c r="I43">
+        <v>0.01457977863761153</v>
+      </c>
+      <c r="J43">
+        <v>-0.04882247771794027</v>
+      </c>
+      <c r="K43">
+        <v>0.05590614672341645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07946997551657914</v>
+        <v>-0.1199081873787115</v>
       </c>
       <c r="C44">
-        <v>-0.01006084322223696</v>
+        <v>0.09350432668042835</v>
       </c>
       <c r="D44">
-        <v>0.07241882162765403</v>
+        <v>0.0007559619468879478</v>
       </c>
       <c r="E44">
-        <v>-0.08902698233728185</v>
+        <v>-0.06524004900589271</v>
       </c>
       <c r="F44">
-        <v>-0.08505601777397997</v>
+        <v>0.06628305724304966</v>
       </c>
       <c r="G44">
-        <v>-0.07100919127440743</v>
+        <v>-0.09199784478852206</v>
       </c>
       <c r="H44">
-        <v>-0.009509816931733792</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.2187841928144469</v>
+      </c>
+      <c r="I44">
+        <v>-0.09520288329483452</v>
+      </c>
+      <c r="J44">
+        <v>0.1197299629986046</v>
+      </c>
+      <c r="K44">
+        <v>0.04210499356391444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2278,404 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.05138603440773826</v>
+        <v>-0.02604409182849737</v>
       </c>
       <c r="C46">
-        <v>-0.03984276864420561</v>
+        <v>-0.001663751932494651</v>
       </c>
       <c r="D46">
-        <v>0.05019118726903364</v>
+        <v>-0.01626808885739738</v>
       </c>
       <c r="E46">
-        <v>-0.0004389844303502511</v>
+        <v>-0.03937613316162926</v>
       </c>
       <c r="F46">
-        <v>-0.02953621876509283</v>
+        <v>0.02338298647835046</v>
       </c>
       <c r="G46">
-        <v>-0.02317596723369552</v>
+        <v>-0.01993420165035853</v>
       </c>
       <c r="H46">
-        <v>0.08166197880617779</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05976228778497792</v>
+      </c>
+      <c r="I46">
+        <v>-0.01624429901985491</v>
+      </c>
+      <c r="J46">
+        <v>-0.05606702208739253</v>
+      </c>
+      <c r="K46">
+        <v>0.05642460279975474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.05029842102002677</v>
+        <v>-0.04196970279438244</v>
       </c>
       <c r="C47">
-        <v>0.0004205788711184403</v>
+        <v>0.003302227965874761</v>
       </c>
       <c r="D47">
-        <v>0.06109873600584342</v>
+        <v>-0.0177067526134966</v>
       </c>
       <c r="E47">
-        <v>0.02906901851434388</v>
+        <v>-0.01855412706723951</v>
       </c>
       <c r="F47">
-        <v>0.002228431578635484</v>
+        <v>0.006099236173423684</v>
       </c>
       <c r="G47">
-        <v>0.003225373358596355</v>
+        <v>0.006874131945917442</v>
       </c>
       <c r="H47">
-        <v>0.02807876016748524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.05204869565295602</v>
+      </c>
+      <c r="I47">
+        <v>-0.009513035012620619</v>
+      </c>
+      <c r="J47">
+        <v>-0.05016702986532012</v>
+      </c>
+      <c r="K47">
+        <v>0.08096033440338858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04564394797143174</v>
+        <v>-0.03795997468135846</v>
       </c>
       <c r="C48">
-        <v>0.0006153674995755782</v>
+        <v>0.000807377668225947</v>
       </c>
       <c r="D48">
-        <v>0.03573424441975683</v>
+        <v>0.01613592129395604</v>
       </c>
       <c r="E48">
-        <v>0.03244831628943447</v>
+        <v>8.200149534944335e-05</v>
       </c>
       <c r="F48">
-        <v>0.006668371242909284</v>
+        <v>0.007022724962127488</v>
       </c>
       <c r="G48">
-        <v>-0.05128401728992624</v>
+        <v>0.0109880251262412</v>
       </c>
       <c r="H48">
-        <v>0.01246771803303607</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05062308654463117</v>
+      </c>
+      <c r="I48">
+        <v>-0.04063727269332119</v>
+      </c>
+      <c r="J48">
+        <v>-0.02879825306943548</v>
+      </c>
+      <c r="K48">
+        <v>0.02200529917655604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2366978646402302</v>
+        <v>-0.2330757016079275</v>
       </c>
       <c r="C49">
-        <v>-0.0662347741896509</v>
+        <v>0.02628049204047261</v>
       </c>
       <c r="D49">
-        <v>-0.08733927917366484</v>
+        <v>-0.07129046714721389</v>
       </c>
       <c r="E49">
-        <v>-0.05133755483563578</v>
+        <v>0.01005353910540806</v>
       </c>
       <c r="F49">
-        <v>0.1173141080522682</v>
+        <v>-0.04949707543076492</v>
       </c>
       <c r="G49">
-        <v>0.1030741817034342</v>
+        <v>-0.05279020763591816</v>
       </c>
       <c r="H49">
-        <v>-0.09546256298438306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.194660123062933</v>
+      </c>
+      <c r="I49">
+        <v>0.1366656680058386</v>
+      </c>
+      <c r="J49">
+        <v>0.1966482780532721</v>
+      </c>
+      <c r="K49">
+        <v>-0.1382057756507985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05606202549093185</v>
+        <v>-0.04327782057156363</v>
       </c>
       <c r="C50">
-        <v>-0.01434343652173744</v>
+        <v>0.01347050295703994</v>
       </c>
       <c r="D50">
-        <v>0.01333336565737008</v>
+        <v>-0.02596889537371688</v>
       </c>
       <c r="E50">
-        <v>0.02694015717205025</v>
+        <v>-0.01587419231718213</v>
       </c>
       <c r="F50">
-        <v>-0.04464639213137517</v>
+        <v>-0.007519224741486939</v>
       </c>
       <c r="G50">
-        <v>-0.0004332840995620627</v>
+        <v>0.003736427566721701</v>
       </c>
       <c r="H50">
-        <v>0.0541994392339433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.05546592832732907</v>
+      </c>
+      <c r="I50">
+        <v>-0.01855013764194079</v>
+      </c>
+      <c r="J50">
+        <v>-0.03509377709370137</v>
+      </c>
+      <c r="K50">
+        <v>0.02685704682581251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03821737753846177</v>
+        <v>-0.01816669083891922</v>
       </c>
       <c r="C51">
-        <v>-0.007272600757494572</v>
+        <v>-0.006382187217205877</v>
       </c>
       <c r="D51">
-        <v>-0.002486295405276742</v>
+        <v>0.0001443389726532769</v>
       </c>
       <c r="E51">
-        <v>-0.02179484894818419</v>
+        <v>-0.01989364104647595</v>
       </c>
       <c r="F51">
-        <v>-0.02248320300774663</v>
+        <v>-0.002625175949778066</v>
       </c>
       <c r="G51">
-        <v>0.01901338937664127</v>
+        <v>-0.02181048759689264</v>
       </c>
       <c r="H51">
-        <v>-0.032677741406362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.02306622103456904</v>
+      </c>
+      <c r="I51">
+        <v>0.003362563957420413</v>
+      </c>
+      <c r="J51">
+        <v>0.006526672094339324</v>
+      </c>
+      <c r="K51">
+        <v>0.006696984600901421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07999643580607169</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04935503701057705</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.03301780348788425</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.0380482694693085</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.003517785873458587</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.002780355758854788</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.04851001078045711</v>
+      </c>
+      <c r="I52">
+        <v>0.03609426653349537</v>
+      </c>
+      <c r="J52">
+        <v>-0.1026483126791653</v>
+      </c>
+      <c r="K52">
+        <v>-0.06444962885329898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1626487253351221</v>
+        <v>-0.162747314483188</v>
       </c>
       <c r="C53">
-        <v>0.008727226224377584</v>
+        <v>0.02584117480647946</v>
       </c>
       <c r="D53">
-        <v>-0.08230600842950379</v>
+        <v>0.0147626515060868</v>
       </c>
       <c r="E53">
-        <v>0.06919660295413389</v>
+        <v>0.007289822065092797</v>
       </c>
       <c r="F53">
-        <v>-0.2039351796452133</v>
+        <v>0.006923623238322376</v>
       </c>
       <c r="G53">
-        <v>0.04519093130273835</v>
+        <v>-0.009498887744948527</v>
       </c>
       <c r="H53">
-        <v>0.03920330675457263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.005222248470624878</v>
+      </c>
+      <c r="I53">
+        <v>0.1038183976740377</v>
+      </c>
+      <c r="J53">
+        <v>-0.2074671218527614</v>
+      </c>
+      <c r="K53">
+        <v>0.003433874724273813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05542236223371125</v>
+        <v>-0.05176212352236363</v>
       </c>
       <c r="C54">
-        <v>-0.007406520506943029</v>
+        <v>0.01450566409753391</v>
       </c>
       <c r="D54">
-        <v>0.04483426901502975</v>
+        <v>-0.01575766381946387</v>
       </c>
       <c r="E54">
-        <v>-0.01255268435841544</v>
+        <v>-0.02068546514795835</v>
       </c>
       <c r="F54">
-        <v>-0.02487917547642254</v>
+        <v>0.0203045355790581</v>
       </c>
       <c r="G54">
-        <v>-0.05738328843956134</v>
+        <v>0.001316456332438938</v>
       </c>
       <c r="H54">
-        <v>0.09732531834824182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.07174540174213101</v>
+      </c>
+      <c r="I54">
+        <v>-0.1175944365901491</v>
+      </c>
+      <c r="J54">
+        <v>-0.06403121297082347</v>
+      </c>
+      <c r="K54">
+        <v>0.1150563514283944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09644771837577103</v>
+        <v>-0.08791196842991721</v>
       </c>
       <c r="C55">
-        <v>-0.005409391663728418</v>
+        <v>0.02293463433578186</v>
       </c>
       <c r="D55">
-        <v>-0.02042661604809246</v>
+        <v>0.03289710495334864</v>
       </c>
       <c r="E55">
-        <v>0.03737487576388367</v>
+        <v>-0.0290953404837518</v>
       </c>
       <c r="F55">
-        <v>-0.1631256772693325</v>
+        <v>-0.02924363492758608</v>
       </c>
       <c r="G55">
-        <v>-0.002141050699695154</v>
+        <v>-0.009539141746700987</v>
       </c>
       <c r="H55">
-        <v>0.0664489344094205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.01967376632434322</v>
+      </c>
+      <c r="I55">
+        <v>0.02431194393560339</v>
+      </c>
+      <c r="J55">
+        <v>-0.1515866440222378</v>
+      </c>
+      <c r="K55">
+        <v>0.01310535198307499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1641895072278146</v>
+        <v>-0.1608349543848671</v>
       </c>
       <c r="C56">
-        <v>0.009075804140027652</v>
+        <v>0.03245977591784897</v>
       </c>
       <c r="D56">
-        <v>-0.08804086584606464</v>
+        <v>-0.008362449675065957</v>
       </c>
       <c r="E56">
-        <v>0.09814149466504253</v>
+        <v>-0.02522302678420665</v>
       </c>
       <c r="F56">
-        <v>-0.2017452022546917</v>
+        <v>-0.03359672459495538</v>
       </c>
       <c r="G56">
-        <v>0.02661268645780147</v>
+        <v>-0.01878895373674333</v>
       </c>
       <c r="H56">
-        <v>0.04995883387946286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.05114219661488986</v>
+      </c>
+      <c r="I56">
+        <v>0.08188181804808776</v>
+      </c>
+      <c r="J56">
+        <v>-0.1767378554170829</v>
+      </c>
+      <c r="K56">
+        <v>-0.004200531181161013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2698,1559 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.01907878415556425</v>
+        <v>-0.03743590358915985</v>
       </c>
       <c r="C58">
-        <v>-0.08127805164917175</v>
+        <v>0.01650932020336995</v>
       </c>
       <c r="D58">
-        <v>0.2434203999209674</v>
+        <v>-0.005255061351866561</v>
       </c>
       <c r="E58">
-        <v>0.03218526539441999</v>
+        <v>-0.0238341548286468</v>
       </c>
       <c r="F58">
-        <v>0.3769838933446943</v>
+        <v>0.09020137841315304</v>
       </c>
       <c r="G58">
-        <v>-0.114656438308164</v>
+        <v>0.01031767535573969</v>
       </c>
       <c r="H58">
-        <v>-0.1164679350546961</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.08989455194361939</v>
+      </c>
+      <c r="I58">
+        <v>0.01563368436443455</v>
+      </c>
+      <c r="J58">
+        <v>0.01448049330593049</v>
+      </c>
+      <c r="K58">
+        <v>0.1048594756832372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.15107417059251</v>
+        <v>-0.1689522710629958</v>
       </c>
       <c r="C59">
-        <v>0.3863945567889621</v>
+        <v>-0.2885340063989207</v>
       </c>
       <c r="D59">
-        <v>-0.04809489171152316</v>
+        <v>0.07556256240894649</v>
       </c>
       <c r="E59">
-        <v>-0.06192292869358117</v>
+        <v>0.007729609001127565</v>
       </c>
       <c r="F59">
-        <v>-0.04477026447958646</v>
+        <v>-0.05452107552343811</v>
       </c>
       <c r="G59">
-        <v>-0.01629757974734014</v>
+        <v>-0.04033644091492669</v>
       </c>
       <c r="H59">
-        <v>-0.03939224112333232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.02022591829119796</v>
+      </c>
+      <c r="I59">
+        <v>-0.03657115965817578</v>
+      </c>
+      <c r="J59">
+        <v>-0.0316946700550463</v>
+      </c>
+      <c r="K59">
+        <v>-0.07912470532631198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2748757290266439</v>
+        <v>-0.2809769869582693</v>
       </c>
       <c r="C60">
-        <v>-0.05272592698227126</v>
+        <v>0.124692384054662</v>
       </c>
       <c r="D60">
-        <v>-0.05835564773717712</v>
+        <v>-0.05633534648472348</v>
       </c>
       <c r="E60">
-        <v>-0.05008355677913996</v>
+        <v>0.03610040768249942</v>
       </c>
       <c r="F60">
-        <v>0.07652213470915592</v>
+        <v>-0.04988699308339264</v>
       </c>
       <c r="G60">
-        <v>0.1478281942421503</v>
+        <v>-0.1319908859552599</v>
       </c>
       <c r="H60">
-        <v>-0.05296480110979113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.0765664091961924</v>
+      </c>
+      <c r="I60">
+        <v>0.1724041424354181</v>
+      </c>
+      <c r="J60">
+        <v>0.2923183717937574</v>
+      </c>
+      <c r="K60">
+        <v>-0.1024301902715312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0950662260936901</v>
+        <v>-0.1130057963246973</v>
       </c>
       <c r="C61">
-        <v>-0.02232864716785935</v>
+        <v>0.05623282802071288</v>
       </c>
       <c r="D61">
-        <v>0.02476802723521864</v>
+        <v>0.02812491850172021</v>
       </c>
       <c r="E61">
-        <v>-0.007165310321107302</v>
+        <v>-0.001760760283394341</v>
       </c>
       <c r="F61">
-        <v>-0.03347441370636101</v>
+        <v>-0.06253170160217264</v>
       </c>
       <c r="G61">
-        <v>-0.05665995644123414</v>
+        <v>-0.03593440400067948</v>
       </c>
       <c r="H61">
-        <v>-0.04915633489195408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1280857875450499</v>
+      </c>
+      <c r="I61">
+        <v>-0.07218824427491598</v>
+      </c>
+      <c r="J61">
+        <v>-0.06025515736172355</v>
+      </c>
+      <c r="K61">
+        <v>-0.0770601909539007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1462904331958262</v>
+        <v>-0.1551420527544196</v>
       </c>
       <c r="C62">
-        <v>-0.0193600496255761</v>
+        <v>0.03563408558407362</v>
       </c>
       <c r="D62">
-        <v>-0.1427726014156143</v>
+        <v>0.01792682630673363</v>
       </c>
       <c r="E62">
-        <v>0.08631895128179196</v>
+        <v>0.001742083268118022</v>
       </c>
       <c r="F62">
-        <v>-0.1648402259163355</v>
+        <v>-0.02070153611840834</v>
       </c>
       <c r="G62">
-        <v>0.006166493380249158</v>
+        <v>-0.006630822831041347</v>
       </c>
       <c r="H62">
-        <v>0.06218824225829364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.008186068475568371</v>
+      </c>
+      <c r="I62">
+        <v>0.09269674642811722</v>
+      </c>
+      <c r="J62">
+        <v>-0.1506735051994272</v>
+      </c>
+      <c r="K62">
+        <v>0.01260102988378203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04307872943888759</v>
+        <v>-0.0422612878111189</v>
       </c>
       <c r="C63">
-        <v>-0.01938786410522811</v>
+        <v>0.005909064953946545</v>
       </c>
       <c r="D63">
-        <v>0.009145557133613961</v>
+        <v>0.01980924437677877</v>
       </c>
       <c r="E63">
-        <v>0.01566558954996873</v>
+        <v>-0.006668015943478265</v>
       </c>
       <c r="F63">
-        <v>-0.01278277125700317</v>
+        <v>-0.0008836977219087686</v>
       </c>
       <c r="G63">
-        <v>-0.04352134634000385</v>
+        <v>0.03573876330263701</v>
       </c>
       <c r="H63">
-        <v>0.0974433654950021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.04658058465393061</v>
+      </c>
+      <c r="I63">
+        <v>-0.04550056488518782</v>
+      </c>
+      <c r="J63">
+        <v>-0.032645112998026</v>
+      </c>
+      <c r="K63">
+        <v>0.01879855279812395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1106407197990254</v>
+        <v>-0.09924443451706573</v>
       </c>
       <c r="C64">
-        <v>-0.01233213656317212</v>
+        <v>0.01892559309852382</v>
       </c>
       <c r="D64">
-        <v>0.05315057977060912</v>
+        <v>-0.01270403117669366</v>
       </c>
       <c r="E64">
-        <v>-0.03504016021578883</v>
+        <v>-0.003765917490569688</v>
       </c>
       <c r="F64">
-        <v>-0.001449236496334227</v>
+        <v>0.004126146174884131</v>
       </c>
       <c r="G64">
-        <v>-0.04764254460764726</v>
+        <v>-0.05410936185260143</v>
       </c>
       <c r="H64">
-        <v>-0.002978566447190913</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.05678190822835059</v>
+      </c>
+      <c r="I64">
+        <v>-0.04597320107598448</v>
+      </c>
+      <c r="J64">
+        <v>0.05975230736407557</v>
+      </c>
+      <c r="K64">
+        <v>-0.0001531179606905736</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1161947897205085</v>
+        <v>-0.11927208120473</v>
       </c>
       <c r="C65">
-        <v>-0.02528460594596369</v>
+        <v>0.008072277424343454</v>
       </c>
       <c r="D65">
-        <v>0.0643979629737762</v>
+        <v>0.0243333534148831</v>
       </c>
       <c r="E65">
-        <v>-0.004235966700328038</v>
+        <v>0.02163978527306976</v>
       </c>
       <c r="F65">
-        <v>0.319450983820567</v>
+        <v>0.01271764964969447</v>
       </c>
       <c r="G65">
-        <v>0.1139972746717931</v>
+        <v>0.06412169026136336</v>
       </c>
       <c r="H65">
-        <v>0.6522965043861529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.02829553214647041</v>
+      </c>
+      <c r="I65">
+        <v>-0.04328213955045095</v>
+      </c>
+      <c r="J65">
+        <v>0.2584671643047762</v>
+      </c>
+      <c r="K65">
+        <v>0.3930523336618067</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1555767220942707</v>
+        <v>-0.1560748092003026</v>
       </c>
       <c r="C66">
-        <v>-0.05101717124899666</v>
+        <v>0.1058146403382674</v>
       </c>
       <c r="D66">
-        <v>0.03227663725908633</v>
+        <v>-0.01363927056087147</v>
       </c>
       <c r="E66">
-        <v>-0.05983099289614317</v>
+        <v>-0.02810524923791049</v>
       </c>
       <c r="F66">
-        <v>-0.05624696909719572</v>
+        <v>-0.1369280318239222</v>
       </c>
       <c r="G66">
-        <v>-0.2638266419149996</v>
+        <v>-0.02764228790043954</v>
       </c>
       <c r="H66">
-        <v>-0.2066689707414875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1422053603634791</v>
+      </c>
+      <c r="I66">
+        <v>-0.02114233160275666</v>
+      </c>
+      <c r="J66">
+        <v>-0.004956917970491853</v>
+      </c>
+      <c r="K66">
+        <v>-0.2104796265722318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1103221568675448</v>
+        <v>-0.08006646380998561</v>
       </c>
       <c r="C67">
-        <v>-0.03392969123937481</v>
+        <v>0.04367902900909265</v>
       </c>
       <c r="D67">
-        <v>-0.009513778815916796</v>
+        <v>0.03492254036227364</v>
       </c>
       <c r="E67">
-        <v>-0.03597331764127674</v>
+        <v>-0.0689733597858176</v>
       </c>
       <c r="F67">
-        <v>-0.05714868658424709</v>
+        <v>-0.01581520914731462</v>
       </c>
       <c r="G67">
-        <v>-0.03793171076327331</v>
+        <v>-0.02544518171363347</v>
       </c>
       <c r="H67">
-        <v>-0.0175394589322979</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.06469467624715067</v>
+      </c>
+      <c r="I67">
+        <v>-0.003176072778828351</v>
+      </c>
+      <c r="J67">
+        <v>0.01213845391876728</v>
+      </c>
+      <c r="K67">
+        <v>-0.006687623100066285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.03797965916147363</v>
+        <v>-0.07713792705747996</v>
       </c>
       <c r="C68">
-        <v>0.2933466555380619</v>
+        <v>-0.2804221387648701</v>
       </c>
       <c r="D68">
-        <v>-0.004500413201191877</v>
+        <v>0.07052326827964449</v>
       </c>
       <c r="E68">
-        <v>0.01971439622111895</v>
+        <v>0.02226641485609046</v>
       </c>
       <c r="F68">
-        <v>0.01116474934988053</v>
+        <v>-0.01534802055365218</v>
       </c>
       <c r="G68">
-        <v>0.01643067962139503</v>
+        <v>0.01807870008667002</v>
       </c>
       <c r="H68">
-        <v>0.02993857862382579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04243430369722602</v>
+      </c>
+      <c r="I68">
+        <v>-0.03510079199852428</v>
+      </c>
+      <c r="J68">
+        <v>0.01518936135421348</v>
+      </c>
+      <c r="K68">
+        <v>0.004169144542488434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.05055778386481369</v>
+        <v>-0.03921609089995634</v>
       </c>
       <c r="C69">
-        <v>-0.0114459053630243</v>
+        <v>0.003835696753752141</v>
       </c>
       <c r="D69">
-        <v>-0.01012479702657919</v>
+        <v>0.01249455233505627</v>
       </c>
       <c r="E69">
-        <v>0.03336151657686116</v>
+        <v>-0.02106926495998365</v>
       </c>
       <c r="F69">
-        <v>0.01290232450958447</v>
+        <v>-0.005341272478173889</v>
       </c>
       <c r="G69">
-        <v>-0.02287362720633773</v>
+        <v>-0.001289420678133822</v>
       </c>
       <c r="H69">
-        <v>0.01981208497366668</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01952943234142217</v>
+      </c>
+      <c r="I69">
+        <v>0.01509290647016569</v>
+      </c>
+      <c r="J69">
+        <v>-0.02348952516234383</v>
+      </c>
+      <c r="K69">
+        <v>0.02874823973498699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.08040216743559388</v>
+        <v>-0.04327360959739392</v>
       </c>
       <c r="C70">
-        <v>-0.0133005119447624</v>
+        <v>0.003410501244660023</v>
       </c>
       <c r="D70">
-        <v>-0.008554486025922441</v>
+        <v>0.04191771306657587</v>
       </c>
       <c r="E70">
-        <v>-0.06241680630074354</v>
+        <v>0.004846746018392364</v>
       </c>
       <c r="F70">
-        <v>-0.004112663451243367</v>
+        <v>-0.01639824516663209</v>
       </c>
       <c r="G70">
-        <v>0.03846433253803364</v>
+        <v>-0.04226771255757563</v>
       </c>
       <c r="H70">
-        <v>-0.01243572292023932</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.001237706245634353</v>
+      </c>
+      <c r="I70">
+        <v>-0.02104990849512037</v>
+      </c>
+      <c r="J70">
+        <v>-0.006714574688758228</v>
+      </c>
+      <c r="K70">
+        <v>0.2114040945076082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04958819050002327</v>
+        <v>-0.09030804530456682</v>
       </c>
       <c r="C71">
-        <v>0.3007015674836749</v>
+        <v>-0.2941999732910609</v>
       </c>
       <c r="D71">
-        <v>0.003699408387778815</v>
+        <v>0.07038711471226716</v>
       </c>
       <c r="E71">
-        <v>-0.003421610336789171</v>
+        <v>0.01439683114215225</v>
       </c>
       <c r="F71">
-        <v>0.008195061338016001</v>
+        <v>-0.01038141152331552</v>
       </c>
       <c r="G71">
-        <v>-0.01060587379074949</v>
+        <v>-0.01104607274343911</v>
       </c>
       <c r="H71">
-        <v>0.009895541024052743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.05166688136781941</v>
+      </c>
+      <c r="I71">
+        <v>-0.02949508300746196</v>
+      </c>
+      <c r="J71">
+        <v>0.03147977347595195</v>
+      </c>
+      <c r="K71">
+        <v>-0.01475658953551503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1329594524510103</v>
+        <v>-0.1397272792757848</v>
       </c>
       <c r="C72">
-        <v>0.01905554381692822</v>
+        <v>-0.01764811460950647</v>
       </c>
       <c r="D72">
-        <v>-0.07947092200455289</v>
+        <v>-0.008840904314053781</v>
       </c>
       <c r="E72">
-        <v>0.1145934720076541</v>
+        <v>-0.01240427027362566</v>
       </c>
       <c r="F72">
-        <v>0.04567422615760774</v>
+        <v>-0.02225954464322553</v>
       </c>
       <c r="G72">
-        <v>-0.09673534240183759</v>
+        <v>0.04849566099494786</v>
       </c>
       <c r="H72">
-        <v>0.1100417777049775</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.003382658971079431</v>
+      </c>
+      <c r="I72">
+        <v>0.005210961573131032</v>
+      </c>
+      <c r="J72">
+        <v>-0.02518488208273679</v>
+      </c>
+      <c r="K72">
+        <v>0.07384824387116097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2862771956832628</v>
+        <v>-0.2454292674150265</v>
       </c>
       <c r="C73">
-        <v>-0.1441948718346287</v>
+        <v>0.07935796899130719</v>
       </c>
       <c r="D73">
-        <v>-0.1336205174226788</v>
+        <v>-0.04502427745283846</v>
       </c>
       <c r="E73">
-        <v>-0.1064222137073456</v>
+        <v>-0.04666917226335648</v>
       </c>
       <c r="F73">
-        <v>0.3197839693683244</v>
+        <v>-0.1166033684019322</v>
       </c>
       <c r="G73">
-        <v>0.2801524719343281</v>
+        <v>-0.1510930370077193</v>
       </c>
       <c r="H73">
-        <v>-0.1837668659145076</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.314312257586135</v>
+      </c>
+      <c r="I73">
+        <v>0.248128516436817</v>
+      </c>
+      <c r="J73">
+        <v>0.2685234345775443</v>
+      </c>
+      <c r="K73">
+        <v>-0.003331385973480601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.1017645695259062</v>
+        <v>-0.1112488446365787</v>
       </c>
       <c r="C74">
-        <v>-0.02978778554574373</v>
+        <v>0.03311502127748282</v>
       </c>
       <c r="D74">
-        <v>-0.03192542812281202</v>
+        <v>-0.02254391103369657</v>
       </c>
       <c r="E74">
-        <v>0.02835039051693975</v>
+        <v>-0.03718314271910364</v>
       </c>
       <c r="F74">
-        <v>-0.1037238936795195</v>
+        <v>-0.01748878982164688</v>
       </c>
       <c r="G74">
-        <v>0.04179240856449587</v>
+        <v>-0.001525490367624155</v>
       </c>
       <c r="H74">
-        <v>0.03235297045368629</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.05555662005266578</v>
+      </c>
+      <c r="I74">
+        <v>0.1110910049125261</v>
+      </c>
+      <c r="J74">
+        <v>-0.1247685751217967</v>
+      </c>
+      <c r="K74">
+        <v>0.03774417229226402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09363831810288571</v>
+        <v>-0.116257703310092</v>
       </c>
       <c r="C75">
-        <v>-0.01853166661889638</v>
+        <v>0.04037489396282469</v>
       </c>
       <c r="D75">
-        <v>-0.055281085939224</v>
+        <v>-0.004923003920679197</v>
       </c>
       <c r="E75">
-        <v>0.07572471526384633</v>
+        <v>-0.01364222421366998</v>
       </c>
       <c r="F75">
-        <v>-0.0830163546650944</v>
+        <v>-0.008948096892115526</v>
       </c>
       <c r="G75">
-        <v>0.04798008521111261</v>
+        <v>0.02364728227515998</v>
       </c>
       <c r="H75">
-        <v>0.01852490239379387</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.0003011464109014781</v>
+      </c>
+      <c r="I75">
+        <v>0.05183129734541717</v>
+      </c>
+      <c r="J75">
+        <v>-0.1364011287316357</v>
+      </c>
+      <c r="K75">
+        <v>-0.01558687079525979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1396333631940021</v>
+        <v>-0.05077699131022115</v>
       </c>
       <c r="C76">
-        <v>-0.02344873300031668</v>
+        <v>0.006232667057841532</v>
       </c>
       <c r="D76">
-        <v>-0.02449972267792931</v>
+        <v>-0.003707787531499393</v>
       </c>
       <c r="E76">
-        <v>0.07338356266692263</v>
+        <v>-0.04032207275245988</v>
       </c>
       <c r="F76">
-        <v>-0.2359366848023352</v>
+        <v>-0.008009760662822317</v>
       </c>
       <c r="G76">
-        <v>0.09256618400453713</v>
+        <v>-0.02707254087771043</v>
       </c>
       <c r="H76">
-        <v>0.04355938316442549</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.03780193525613468</v>
+      </c>
+      <c r="I76">
+        <v>0.0435274921183618</v>
+      </c>
+      <c r="J76">
+        <v>-0.1130612034792091</v>
+      </c>
+      <c r="K76">
+        <v>0.03949849642553179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08347049290021366</v>
+        <v>-0.07921057523211385</v>
       </c>
       <c r="C77">
-        <v>0.008602560421434164</v>
+        <v>0.07984890154349436</v>
       </c>
       <c r="D77">
-        <v>0.1312848014762245</v>
+        <v>0.004639327399545535</v>
       </c>
       <c r="E77">
-        <v>-0.1211344510978332</v>
+        <v>0.01026252519273254</v>
       </c>
       <c r="F77">
-        <v>0.2126576318854478</v>
+        <v>0.01842042989439536</v>
       </c>
       <c r="G77">
-        <v>-0.149230718836513</v>
+        <v>-0.06200958324333262</v>
       </c>
       <c r="H77">
-        <v>-0.1270645629100959</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.09830216468322291</v>
+      </c>
+      <c r="I77">
+        <v>-0.2697759028899047</v>
+      </c>
+      <c r="J77">
+        <v>0.3363106074044464</v>
+      </c>
+      <c r="K77">
+        <v>-0.06908448546382284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2223534494183668</v>
+        <v>-0.1507790155546796</v>
       </c>
       <c r="C78">
-        <v>-0.05338032014317694</v>
+        <v>0.04361584348695468</v>
       </c>
       <c r="D78">
-        <v>0.207279704875616</v>
+        <v>-0.09172730072621761</v>
       </c>
       <c r="E78">
-        <v>-0.05184854026811171</v>
+        <v>-0.264836580965861</v>
       </c>
       <c r="F78">
-        <v>0.01295463727576541</v>
+        <v>0.1363457897650976</v>
       </c>
       <c r="G78">
-        <v>-0.1375306216415199</v>
+        <v>0.1146894263225658</v>
       </c>
       <c r="H78">
-        <v>0.06559017025721968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5737687520429473</v>
+      </c>
+      <c r="I78">
+        <v>-0.6204594685091959</v>
+      </c>
+      <c r="J78">
+        <v>-0.2058201734683621</v>
+      </c>
+      <c r="K78">
+        <v>-0.1393972914611113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1368205845917196</v>
+        <v>-0.1341727285898522</v>
       </c>
       <c r="C79">
-        <v>-0.00822289867728177</v>
+        <v>0.02747551166468096</v>
       </c>
       <c r="D79">
-        <v>-0.03311035575216303</v>
+        <v>-0.04462945160784922</v>
       </c>
       <c r="E79">
-        <v>0.05408720588664009</v>
+        <v>-0.0240246379980088</v>
       </c>
       <c r="F79">
-        <v>-0.1304822074511151</v>
+        <v>-0.02313672367211433</v>
       </c>
       <c r="G79">
-        <v>-0.00311834244480122</v>
+        <v>-0.005897895320238648</v>
       </c>
       <c r="H79">
-        <v>0.05426914656934688</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.04309583888033047</v>
+      </c>
+      <c r="I79">
+        <v>0.05664217983129714</v>
+      </c>
+      <c r="J79">
+        <v>-0.1182993949921526</v>
+      </c>
+      <c r="K79">
+        <v>0.01368785517897221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.0346444798827526</v>
+        <v>-0.07045209638116136</v>
       </c>
       <c r="C80">
-        <v>-0.007038202019067541</v>
+        <v>0.05912582332901507</v>
       </c>
       <c r="D80">
-        <v>-0.02535918261115999</v>
+        <v>0.06780099925997803</v>
       </c>
       <c r="E80">
-        <v>-0.05473143658892039</v>
+        <v>0.02648404211574448</v>
       </c>
       <c r="F80">
-        <v>0.01454130708732411</v>
+        <v>-0.02555752124474554</v>
       </c>
       <c r="G80">
-        <v>-0.05978899560438785</v>
+        <v>-0.005799357336848643</v>
       </c>
       <c r="H80">
-        <v>0.1146151776932102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.02322149071001962</v>
+      </c>
+      <c r="I80">
+        <v>-0.0648882998885176</v>
+      </c>
+      <c r="J80">
+        <v>-0.1405644358697766</v>
+      </c>
+      <c r="K80">
+        <v>0.08096739190767015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1139592797317032</v>
+        <v>-0.135385818206942</v>
       </c>
       <c r="C81">
-        <v>0.0009275073090829228</v>
+        <v>0.03733247725559947</v>
       </c>
       <c r="D81">
-        <v>-0.02070251268046766</v>
+        <v>-0.02139358749813063</v>
       </c>
       <c r="E81">
-        <v>0.02573322377892402</v>
+        <v>-0.02341330419390888</v>
       </c>
       <c r="F81">
-        <v>-0.1247053992261743</v>
+        <v>-0.009315170356843785</v>
       </c>
       <c r="G81">
-        <v>0.03068385723631212</v>
+        <v>-0.007304602661693362</v>
       </c>
       <c r="H81">
-        <v>-0.003764600195744296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.05896453520641814</v>
+      </c>
+      <c r="I81">
+        <v>0.0552717538722753</v>
+      </c>
+      <c r="J81">
+        <v>-0.159047230226651</v>
+      </c>
+      <c r="K81">
+        <v>-0.01080156179025616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1107249017068316</v>
+        <v>-0.1512566482411282</v>
       </c>
       <c r="C82">
-        <v>-0.0189520096954506</v>
+        <v>0.0446645461111278</v>
       </c>
       <c r="D82">
-        <v>-0.05948728267147309</v>
+        <v>0.02617491982287724</v>
       </c>
       <c r="E82">
-        <v>-0.02220632310326271</v>
+        <v>0.01277970659896248</v>
       </c>
       <c r="F82">
-        <v>-0.2625403071140256</v>
+        <v>-0.03142192751768574</v>
       </c>
       <c r="G82">
-        <v>0.01782736146680419</v>
+        <v>-0.0413066989187677</v>
       </c>
       <c r="H82">
-        <v>0.03858298992364015</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.04681858223781034</v>
+      </c>
+      <c r="I82">
+        <v>0.1348595733155775</v>
+      </c>
+      <c r="J82">
+        <v>-0.2221965898353305</v>
+      </c>
+      <c r="K82">
+        <v>-0.05669411374412192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1120068117163122</v>
+        <v>-0.08943540867703492</v>
       </c>
       <c r="C83">
-        <v>-0.044625682510909</v>
+        <v>0.06110307404209142</v>
       </c>
       <c r="D83">
-        <v>-0.001361688053192075</v>
+        <v>-0.009935808349762688</v>
       </c>
       <c r="E83">
-        <v>-0.09831488082976936</v>
+        <v>0.02668897490301668</v>
       </c>
       <c r="F83">
-        <v>0.0265333635849611</v>
+        <v>0.03681327280215387</v>
       </c>
       <c r="G83">
-        <v>-0.05182385709525994</v>
+        <v>0.005491743378846977</v>
       </c>
       <c r="H83">
-        <v>-0.07426535200886521</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.05112088936512368</v>
+      </c>
+      <c r="I83">
+        <v>-0.072389916995378</v>
+      </c>
+      <c r="J83">
+        <v>-0.05746622790451405</v>
+      </c>
+      <c r="K83">
+        <v>0.4348347383393021</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04978611332323402</v>
+        <v>-0.06679718737393035</v>
       </c>
       <c r="C84">
-        <v>-0.02666640398592534</v>
+        <v>0.008449500128334102</v>
       </c>
       <c r="D84">
-        <v>0.01631918408714627</v>
+        <v>0.008865866893558226</v>
       </c>
       <c r="E84">
-        <v>0.05697434618717202</v>
+        <v>0.04808633654180239</v>
       </c>
       <c r="F84">
-        <v>-0.05567455277247757</v>
+        <v>-0.01892015267456265</v>
       </c>
       <c r="G84">
-        <v>0.04249940557057538</v>
+        <v>-0.02852921751668273</v>
       </c>
       <c r="H84">
-        <v>0.00464205149370538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.01330126964269406</v>
+      </c>
+      <c r="I84">
+        <v>0.009399690048949704</v>
+      </c>
+      <c r="J84">
+        <v>0.06976300308433511</v>
+      </c>
+      <c r="K84">
+        <v>-0.3778825957060423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.106392476630791</v>
+        <v>-0.121539191038673</v>
       </c>
       <c r="C85">
-        <v>-0.01327251880848087</v>
+        <v>0.02587581447551184</v>
       </c>
       <c r="D85">
-        <v>-0.04245594481234852</v>
+        <v>-0.006081597871848261</v>
       </c>
       <c r="E85">
-        <v>0.08144056858188256</v>
+        <v>-0.01568928652324389</v>
       </c>
       <c r="F85">
-        <v>-0.1553775123837304</v>
+        <v>-0.01178753651980971</v>
       </c>
       <c r="G85">
-        <v>-0.01252197556757634</v>
+        <v>-0.01270809964712825</v>
       </c>
       <c r="H85">
-        <v>0.08865302351559817</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.04359547312771789</v>
+      </c>
+      <c r="I85">
+        <v>0.04108832183503536</v>
+      </c>
+      <c r="J85">
+        <v>-0.1513654231944063</v>
+      </c>
+      <c r="K85">
+        <v>-0.002735875543166325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06800965625274004</v>
+        <v>-0.1199745736174309</v>
       </c>
       <c r="C86">
-        <v>-0.02046857127428202</v>
+        <v>-0.0274054229351697</v>
       </c>
       <c r="D86">
-        <v>0.08273777360604659</v>
+        <v>-0.5892141675546742</v>
       </c>
       <c r="E86">
-        <v>-0.1091744471102376</v>
+        <v>0.6924098276650259</v>
       </c>
       <c r="F86">
-        <v>-0.02925590083072285</v>
+        <v>0.3014455393104171</v>
       </c>
       <c r="G86">
-        <v>-0.05545306864708097</v>
+        <v>0.08998599815201146</v>
       </c>
       <c r="H86">
-        <v>0.2765653510572744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.03459806141765907</v>
+      </c>
+      <c r="I86">
+        <v>-0.0876112378438738</v>
+      </c>
+      <c r="J86">
+        <v>-0.04537529432024263</v>
+      </c>
+      <c r="K86">
+        <v>-0.06915277245799974</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1103065522146972</v>
+        <v>-0.1214013593784022</v>
       </c>
       <c r="C87">
-        <v>-0.05476624136349287</v>
+        <v>0.1011209688064998</v>
       </c>
       <c r="D87">
-        <v>0.06568202484218913</v>
+        <v>0.02889842737944129</v>
       </c>
       <c r="E87">
-        <v>-0.0251570706581075</v>
+        <v>-0.001890653365000839</v>
       </c>
       <c r="F87">
-        <v>0.01550778344117414</v>
+        <v>0.01699812517647732</v>
       </c>
       <c r="G87">
-        <v>-0.1221989409757483</v>
+        <v>-0.03924769286012054</v>
       </c>
       <c r="H87">
-        <v>0.001126762853882989</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.09146435621188136</v>
+      </c>
+      <c r="I87">
+        <v>-0.181356100258655</v>
+      </c>
+      <c r="J87">
+        <v>0.1617542415676346</v>
+      </c>
+      <c r="K87">
+        <v>0.07637873495187118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.07025089567770508</v>
+        <v>-0.05658093542847575</v>
       </c>
       <c r="C88">
-        <v>-0.04322102271723397</v>
+        <v>0.02783172500774827</v>
       </c>
       <c r="D88">
-        <v>0.0234678525301618</v>
+        <v>-0.006005072183434297</v>
       </c>
       <c r="E88">
-        <v>-0.02456354470951994</v>
+        <v>-0.01248007732022189</v>
       </c>
       <c r="F88">
-        <v>-0.03206141831128656</v>
+        <v>-0.05177410352220944</v>
       </c>
       <c r="G88">
-        <v>-0.04501709521462503</v>
+        <v>-0.01714654128424489</v>
       </c>
       <c r="H88">
-        <v>-0.01579118329941196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.02970471759086607</v>
+      </c>
+      <c r="I88">
+        <v>-0.01140966186508146</v>
+      </c>
+      <c r="J88">
+        <v>-0.04442102598545827</v>
+      </c>
+      <c r="K88">
+        <v>0.04291022638296664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.0937710342775504</v>
+        <v>-0.1413034484125547</v>
       </c>
       <c r="C89">
-        <v>0.3854496432038648</v>
+        <v>-0.3679100322970894</v>
       </c>
       <c r="D89">
-        <v>0.04662294843783163</v>
+        <v>0.07111858440139118</v>
       </c>
       <c r="E89">
-        <v>-0.05171589088238813</v>
+        <v>0.003714392000557086</v>
       </c>
       <c r="F89">
-        <v>0.01215333898137149</v>
+        <v>0.04934256978707301</v>
       </c>
       <c r="G89">
-        <v>0.007778483894021658</v>
+        <v>-0.04683882596171787</v>
       </c>
       <c r="H89">
-        <v>-0.009977026190923104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.005469118514748851</v>
+      </c>
+      <c r="I89">
+        <v>-0.03981519213499212</v>
+      </c>
+      <c r="J89">
+        <v>0.01280631669361207</v>
+      </c>
+      <c r="K89">
+        <v>-0.02131484648624291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07220728014900742</v>
+        <v>-0.1041479481036904</v>
       </c>
       <c r="C90">
-        <v>0.2926547074181515</v>
+        <v>-0.2907946096455964</v>
       </c>
       <c r="D90">
-        <v>0.05595617060480702</v>
+        <v>0.04985725896866461</v>
       </c>
       <c r="E90">
-        <v>-0.01997105362543491</v>
+        <v>0.01621557630292625</v>
       </c>
       <c r="F90">
-        <v>0.03497526814273207</v>
+        <v>-0.01427556708291103</v>
       </c>
       <c r="G90">
-        <v>-0.02993389283089884</v>
+        <v>-0.02399572153559705</v>
       </c>
       <c r="H90">
-        <v>-0.03841803923371045</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.05090870384064003</v>
+      </c>
+      <c r="I90">
+        <v>-0.04309928732455993</v>
+      </c>
+      <c r="J90">
+        <v>0.04528142166640964</v>
+      </c>
+      <c r="K90">
+        <v>-0.001710855481065718</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08233832224437775</v>
+        <v>-0.08591415131913738</v>
       </c>
       <c r="C91">
-        <v>-0.01848658550429579</v>
+        <v>0.02908846119365465</v>
       </c>
       <c r="D91">
-        <v>-0.02806079451323069</v>
+        <v>-0.02667881235589597</v>
       </c>
       <c r="E91">
-        <v>0.02592305646710301</v>
+        <v>-0.003450712666337046</v>
       </c>
       <c r="F91">
-        <v>-0.07520100036404115</v>
+        <v>-0.003267105379335702</v>
       </c>
       <c r="G91">
-        <v>0.06961951413533064</v>
+        <v>-0.01842111257081234</v>
       </c>
       <c r="H91">
-        <v>-0.01787943058982202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.01560192155495497</v>
+      </c>
+      <c r="I91">
+        <v>0.05837832229675068</v>
+      </c>
+      <c r="J91">
+        <v>-0.09634199504754472</v>
+      </c>
+      <c r="K91">
+        <v>0.01229324387799509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.06625321315484826</v>
+        <v>-0.1163748057743036</v>
       </c>
       <c r="C92">
-        <v>0.3545024093652782</v>
+        <v>-0.3305970980990064</v>
       </c>
       <c r="D92">
-        <v>0.04076077914953124</v>
+        <v>0.08209437394476944</v>
       </c>
       <c r="E92">
-        <v>-0.01667169366822432</v>
+        <v>0.01919498499856996</v>
       </c>
       <c r="F92">
-        <v>0.05799298110232906</v>
+        <v>0.03933446770028668</v>
       </c>
       <c r="G92">
-        <v>0.009848163216792844</v>
+        <v>-0.008552933275134227</v>
       </c>
       <c r="H92">
-        <v>-0.02361357324421098</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.0212122143391749</v>
+      </c>
+      <c r="I92">
+        <v>-0.06887419937597125</v>
+      </c>
+      <c r="J92">
+        <v>-0.02373445601831031</v>
+      </c>
+      <c r="K92">
+        <v>-0.04622578415563152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08340378860836639</v>
+        <v>-0.1113882702298727</v>
       </c>
       <c r="C93">
-        <v>0.3027692657369325</v>
+        <v>-0.3148173532811994</v>
       </c>
       <c r="D93">
-        <v>0.02848560658900306</v>
+        <v>0.06687658336270232</v>
       </c>
       <c r="E93">
-        <v>-0.01007882503884086</v>
+        <v>0.05159191510895622</v>
       </c>
       <c r="F93">
-        <v>0.03802637065896783</v>
+        <v>-0.02097030789544093</v>
       </c>
       <c r="G93">
-        <v>0.0164911189607591</v>
+        <v>-0.03555999860368207</v>
       </c>
       <c r="H93">
-        <v>0.006221906301375734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03695327908566582</v>
+      </c>
+      <c r="I93">
+        <v>-0.01112498958840187</v>
+      </c>
+      <c r="J93">
+        <v>0.03753502424082376</v>
+      </c>
+      <c r="K93">
+        <v>-0.02249333203687572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09394476074904172</v>
+        <v>-0.1340057900184072</v>
       </c>
       <c r="C94">
-        <v>-0.04249572748308179</v>
+        <v>0.04551044307099106</v>
       </c>
       <c r="D94">
-        <v>-0.02302672415671383</v>
+        <v>-0.003517329276358075</v>
       </c>
       <c r="E94">
-        <v>0.05585746444700206</v>
+        <v>-0.05748874437445182</v>
       </c>
       <c r="F94">
-        <v>-0.113707727361446</v>
+        <v>-0.01094408310761249</v>
       </c>
       <c r="G94">
-        <v>0.05994820424961969</v>
+        <v>-0.009043762623242826</v>
       </c>
       <c r="H94">
-        <v>0.03989836648604331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.03259112416215301</v>
+      </c>
+      <c r="I94">
+        <v>0.09112787150928602</v>
+      </c>
+      <c r="J94">
+        <v>-0.1234841001111093</v>
+      </c>
+      <c r="K94">
+        <v>-0.02916667152928704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1296447395102925</v>
+        <v>-0.1199476828842312</v>
       </c>
       <c r="C95">
-        <v>-0.07920516551146008</v>
+        <v>0.05528089030935391</v>
       </c>
       <c r="D95">
-        <v>0.09387461672325727</v>
+        <v>-0.005286247541868697</v>
       </c>
       <c r="E95">
-        <v>-0.09123318239595195</v>
+        <v>-0.02634326260959069</v>
       </c>
       <c r="F95">
-        <v>0.05431767916206084</v>
+        <v>0.03380947420964576</v>
       </c>
       <c r="G95">
-        <v>-0.1114552457619999</v>
+        <v>-0.05062308246811421</v>
       </c>
       <c r="H95">
-        <v>0.07451361576228631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.01455370255948529</v>
+      </c>
+      <c r="I95">
+        <v>-0.1212280044401274</v>
+      </c>
+      <c r="J95">
+        <v>0.05951521279158433</v>
+      </c>
+      <c r="K95">
+        <v>-0.02590435088652187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009615657512055386</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0008881833614134927</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.005045387495607919</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001021481338212751</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.007626615978247709</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.001397286309881444</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.001239119481474355</v>
+      </c>
+      <c r="I96">
+        <v>-0.02181015586014045</v>
+      </c>
+      <c r="J96">
+        <v>0.01661096044946852</v>
+      </c>
+      <c r="K96">
+        <v>0.01787265215988386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.1495998415433162</v>
+        <v>-0.1692433305184822</v>
       </c>
       <c r="C97">
-        <v>0.04232557046693831</v>
+        <v>-0.002645643958670453</v>
       </c>
       <c r="D97">
-        <v>-0.1995947200612565</v>
+        <v>0.032036278412246</v>
       </c>
       <c r="E97">
-        <v>0.8188556821443991</v>
+        <v>-0.1043033737753104</v>
       </c>
       <c r="F97">
-        <v>0.2608204928246696</v>
+        <v>0.003143179474529109</v>
       </c>
       <c r="G97">
-        <v>-0.1959728863208622</v>
+        <v>0.9278534870817881</v>
       </c>
       <c r="H97">
-        <v>-0.038923850753439</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.05020147824558318</v>
+      </c>
+      <c r="I97">
+        <v>0.1555738823284691</v>
+      </c>
+      <c r="J97">
+        <v>0.1104640315617302</v>
+      </c>
+      <c r="K97">
+        <v>-0.05001705698427351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3246186061897927</v>
+        <v>-0.2686293304067789</v>
       </c>
       <c r="C98">
-        <v>-0.05616409690277477</v>
+        <v>0.03821717109231955</v>
       </c>
       <c r="D98">
-        <v>-0.2152432371991174</v>
+        <v>0.0338374567927866</v>
       </c>
       <c r="E98">
-        <v>-0.1579148021596436</v>
+        <v>0.1006526152244967</v>
       </c>
       <c r="F98">
-        <v>0.1209819934669523</v>
+        <v>0.08348972138637624</v>
       </c>
       <c r="G98">
-        <v>0.3225903798773589</v>
+        <v>-0.05510023023227457</v>
       </c>
       <c r="H98">
-        <v>-0.2345807158065848</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.3721568779745192</v>
+      </c>
+      <c r="I98">
+        <v>0.2222181414204713</v>
+      </c>
+      <c r="J98">
+        <v>-0.0525511221290987</v>
+      </c>
+      <c r="K98">
+        <v>0.2152334261780905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08844343609913036</v>
+        <v>-0.05589415523947643</v>
       </c>
       <c r="C99">
-        <v>-0.02220544455189345</v>
+        <v>0.002584556013021812</v>
       </c>
       <c r="D99">
-        <v>-0.005527028500872283</v>
+        <v>-0.01284028919081528</v>
       </c>
       <c r="E99">
-        <v>-0.004571687103355135</v>
+        <v>-0.05795281542971725</v>
       </c>
       <c r="F99">
-        <v>0.01210234053642945</v>
+        <v>-0.006290472746538713</v>
       </c>
       <c r="G99">
-        <v>-0.02909104837325905</v>
+        <v>-0.01627624932996371</v>
       </c>
       <c r="H99">
-        <v>-0.06142304783246885</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.009467821668326201</v>
+      </c>
+      <c r="I99">
+        <v>0.006545520233090877</v>
+      </c>
+      <c r="J99">
+        <v>-0.02143922729732877</v>
+      </c>
+      <c r="K99">
+        <v>0.01432295332931261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.06898084131870147</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2241717443357804</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.7491065152694303</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.464782446146317</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.2787970403118835</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.0368990540593058</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.06718353479992667</v>
+      </c>
+      <c r="I100">
+        <v>-0.07520992810203336</v>
+      </c>
+      <c r="J100">
+        <v>-0.02427433476199146</v>
+      </c>
+      <c r="K100">
+        <v>-0.09172035273894508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05962964565185713</v>
+        <v>-0.03815677394549735</v>
       </c>
       <c r="C101">
-        <v>-0.002467733807690522</v>
+        <v>0.007288765873321564</v>
       </c>
       <c r="D101">
-        <v>0.04740100038885566</v>
+        <v>0.002878556084222651</v>
       </c>
       <c r="E101">
-        <v>-0.0188384287328483</v>
+        <v>0.0005771718404439835</v>
       </c>
       <c r="F101">
-        <v>-0.04136152087182011</v>
+        <v>-0.01270556483644503</v>
       </c>
       <c r="G101">
-        <v>-0.0348752511426034</v>
+        <v>-0.02681482786975781</v>
       </c>
       <c r="H101">
-        <v>0.0869500217611846</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.08947982303279417</v>
+      </c>
+      <c r="I101">
+        <v>-0.03072201762509265</v>
+      </c>
+      <c r="J101">
+        <v>-0.06802029020876989</v>
+      </c>
+      <c r="K101">
+        <v>0.07755041260857899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4273,19 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4308,19 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4341,15 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
